--- a/config_7.6/game_activity_config.xlsx
+++ b/config_7.6/game_activity_config.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="182">
   <si>
     <t>line|行号</t>
   </si>
@@ -660,16 +660,22 @@
   <si>
     <t>消除酷暑</t>
   </si>
+  <si>
+    <t>啤酒狂欢</t>
+  </si>
+  <si>
+    <t>牛气达人</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -723,39 +729,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,15 +745,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,8 +766,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -807,8 +789,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,10 +836,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,23 +874,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -910,7 +916,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,97 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,31 +1066,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,13 +1096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,6 +1125,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1134,17 +1151,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,44 +1192,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,10 +1230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,33 +1242,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,97 +1281,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1816,14 +1822,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5178,6 +5184,100 @@
         <v>1</v>
       </c>
       <c r="O73" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:15">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="8">
+        <v>73</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I74" s="6">
+        <v>1625529600</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1626105599</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:15">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="8">
+        <v>74</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="6">
+        <v>2</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1625529600</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1626105599</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="O75" s="5" t="s">
         <v>15</v>
       </c>
     </row>
